--- a/biology/Histoire de la zoologie et de la botanique/Irene_Pepperberg/Irene_Pepperberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Irene_Pepperberg/Irene_Pepperberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Irène Maxine Pepperberg (née le 1er avril 1949 à Brooklyn, New York) est une neurochimiste et éthologue américaine de l’université Brandeis à Waltham, connue pour ses travaux sur l'intelligence animale et notamment son expérience sur la cognition et le langage avec Alex le perroquet.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Irène Pepperberg conclut ses études de chimie au Massachusetts Institute of Technology par un Bachelor of Science (1969), puis passe un Master of Arts (M.A., 1971) et un doctorat en chimie physique (1976) à l'université Harvard.
 Ses recherches portent sur les principes du langage et de la communication animale ; en particulier, elle s'est intéressée aux différences de fonctions cérébrales entre les mammifères et les oiseaux.
